--- a/02-2018_Utility_Summary.xlsx
+++ b/02-2018_Utility_Summary.xlsx
@@ -2356,11 +2356,11 @@
         <v/>
       </c>
       <c r="I6" s="167">
-        <f>AVERAGE(144088.521, 152285.121)</f>
+        <f>156776/(2976/2976)</f>
         <v/>
       </c>
       <c r="J6" s="148">
-        <f>AVERAGE(142293.53,144088.25)</f>
+        <f>156776/(2976/2976)</f>
         <v/>
       </c>
       <c r="K6" s="203">
@@ -2414,11 +2414,11 @@
         <v/>
       </c>
       <c r="I7" s="219">
-        <f>(114810.28+126949.47+14854.14)/(1684658+97143)</f>
+        <f>(113103.55+28873.02+28325.35+126543.13)/(1654490+5411+185242)</f>
         <v/>
       </c>
       <c r="J7" s="220">
-        <f>(122407.06+27007.58+107322.26+1506.62)/(1574771+0+176624)</f>
+        <f>(113103.55+28873.02+28325.35+126543.13)/(1654490+5411+185242)</f>
         <v/>
       </c>
       <c r="K7" s="219">
@@ -2603,11 +2603,11 @@
         <v/>
       </c>
       <c r="I11" s="167">
-        <f>3338.7/(2187/2976)</f>
+        <f>3071.71317115496/(2733/2976)</f>
         <v/>
       </c>
       <c r="J11" s="148">
-        <f>2473.836/(1940/2688)</f>
+        <f>3071.71317115496/(2733/2976)</f>
         <v/>
       </c>
       <c r="K11" s="203">
@@ -2660,11 +2660,11 @@
         <v/>
       </c>
       <c r="I12" s="268">
-        <f>83220.82/94904</f>
+        <f>39875.35/47350</f>
         <v/>
       </c>
       <c r="J12" s="268">
-        <f>67910.85/74496</f>
+        <f>39875.35/47350</f>
         <v/>
       </c>
       <c r="K12" s="268">
@@ -2843,10 +2843,10 @@
         <v>92429.20000000019</v>
       </c>
       <c r="I16" s="167" t="n">
-        <v>77609.39999999944</v>
+        <v>170863.2</v>
       </c>
       <c r="J16" s="169" t="n">
-        <v>163944.7</v>
+        <v>170863.2</v>
       </c>
       <c r="K16" s="169" t="n">
         <v>170863.2</v>
@@ -2894,11 +2894,11 @@
         <v/>
       </c>
       <c r="I17" s="219">
-        <f>17291.41/(4097*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="J17" s="219">
-        <f>39963.7/(9534*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="K17" s="219">
@@ -3076,11 +3076,11 @@
         <v/>
       </c>
       <c r="I21" s="167">
-        <f>17191.466/(2962/2976)</f>
+        <f>26093.0834625773/(2970/2976)</f>
         <v/>
       </c>
       <c r="J21" s="148">
-        <f>20111.255/(2676/2688)</f>
+        <f>26093.0834625773/(2970/2976)</f>
         <v/>
       </c>
       <c r="K21" s="148">
@@ -15569,11 +15569,11 @@
         <v/>
       </c>
       <c r="I7" s="167">
-        <f>6710.25/(361/2976)</f>
+        <f>48369.75/(2955/2976)</f>
         <v/>
       </c>
       <c r="J7" s="148">
-        <f>46945.75/(2688/2688)</f>
+        <f>48369.75/(2955/2976)</f>
         <v/>
       </c>
       <c r="K7" s="203">
@@ -15627,11 +15627,11 @@
         <v/>
       </c>
       <c r="I8" s="220">
-        <f>(114810.28+126949.47+14854.14)/(1684658+97143)</f>
+        <f>(113103.55+28873.02+28325.35+126543.13)/(1654490+5411+185242)</f>
         <v/>
       </c>
       <c r="J8" s="220">
-        <f>(122407.06+27007.58+107322.26+1506.62)/(1574771+0+176624)</f>
+        <f>(113103.55+28873.02+28325.35+126543.13)/(1654490+5411+185242)</f>
         <v/>
       </c>
       <c r="K8" s="220">
@@ -15808,11 +15808,11 @@
       <c r="H12" s="169" t="n">
         <v>17662</v>
       </c>
-      <c r="I12" s="148" t="n">
-        <v>18970</v>
-      </c>
-      <c r="J12" s="148" t="n">
-        <v>20580</v>
+      <c r="I12" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="148" t="s">
+        <v>121</v>
       </c>
       <c r="K12" s="148" t="s">
         <v>121</v>
@@ -15916,11 +15916,11 @@
         <v/>
       </c>
       <c r="I14" s="268">
-        <f>83220.82/94904</f>
+        <f>39875.35/47350</f>
         <v/>
       </c>
       <c r="J14" s="268">
-        <f>67910.85/74496</f>
+        <f>39875.35/47350</f>
         <v/>
       </c>
       <c r="K14" s="268">
@@ -16121,10 +16121,10 @@
         <v>30993.30000000005</v>
       </c>
       <c r="I19" s="167" t="n">
-        <v>56370.90000000014</v>
+        <v>77488.39999999991</v>
       </c>
       <c r="J19" s="169" t="n">
-        <v>95946.2</v>
+        <v>77488.39999999991</v>
       </c>
       <c r="K19" s="201" t="n">
         <v>77488.39999999991</v>
@@ -16173,11 +16173,11 @@
         <v/>
       </c>
       <c r="I20" s="219">
-        <f>17291.41/(4097*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="J20" s="219">
-        <f>39963.7/(9534*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="K20" s="219">
@@ -16356,10 +16356,10 @@
         <v>16680</v>
       </c>
       <c r="I24" s="167" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J24" s="182" t="n">
-        <v>47074</v>
+        <v>0</v>
       </c>
       <c r="K24" s="204" t="n">
         <v>0</v>
@@ -16399,10 +16399,10 @@
         <v>1.39999999996508</v>
       </c>
       <c r="I25" s="200" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J25" s="169" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="K25" s="201" t="n">
         <v>62</v>
@@ -16451,11 +16451,11 @@
         <v/>
       </c>
       <c r="I26" s="219">
-        <f>17291.41/(4097*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="J26" s="219">
-        <f>39963.7/(9534*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="K26" s="219">
@@ -16632,11 +16632,11 @@
         <v/>
       </c>
       <c r="I30" s="167">
-        <f>529.4546/(361/2976)</f>
+        <f>6072.56248079295/(2955/2976)</f>
         <v/>
       </c>
       <c r="J30" s="148">
-        <f>4009.989/(2688/2688)</f>
+        <f>6072.56248079295/(2955/2976)</f>
         <v/>
       </c>
       <c r="K30" s="148">
@@ -17108,11 +17108,11 @@
         <v/>
       </c>
       <c r="I6" s="167">
-        <f>5530.867/(2976/2976)</f>
+        <f>5233.95721061527/(2969/2976)</f>
         <v/>
       </c>
       <c r="J6" s="148">
-        <f>5038.12/(2688/2688)</f>
+        <f>5233.95721061527/(2969/2976)</f>
         <v/>
       </c>
       <c r="K6" s="148">
@@ -17167,11 +17167,11 @@
         <v/>
       </c>
       <c r="I7" s="220">
-        <f>(114810.28+126949.47+14854.14)/(1684658+97143)</f>
+        <f>(113103.55+28873.02+28325.35+126543.13)/(1654490+5411+185242)</f>
         <v/>
       </c>
       <c r="J7" s="220">
-        <f>(122407.06+27007.58+107322.26+1506.62)/(1574771+0+176624)</f>
+        <f>(113103.55+28873.02+28325.35+126543.13)/(1654490+5411+185242)</f>
         <v/>
       </c>
       <c r="K7" s="220">
@@ -17477,10 +17477,10 @@
         <v>9482.100000000035</v>
       </c>
       <c r="I16" s="167" t="n">
-        <v>10677.29999999999</v>
+        <v>20785.00000000001</v>
       </c>
       <c r="J16" s="169" t="n">
-        <v>14169.7</v>
+        <v>20785.00000000001</v>
       </c>
       <c r="K16" s="169" t="n">
         <v>20785.00000000001</v>
@@ -17528,11 +17528,11 @@
         <v/>
       </c>
       <c r="I17" s="219">
-        <f>17291.41/(4097*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="J17" s="219">
-        <f>39963.7/(9534*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="K17" s="219">
@@ -17711,11 +17711,11 @@
         <v/>
       </c>
       <c r="I21" s="167">
-        <f>2543.90427083334/(2976/2976)</f>
+        <f>2913.660416666666/(2966/2976)</f>
         <v/>
       </c>
       <c r="J21" s="148">
-        <f>1899.679/(2688/2688)</f>
+        <f>2913.660416666666/(2966/2976)</f>
         <v/>
       </c>
       <c r="K21" s="148">
